--- a/biology/Botanique/Tasse_de_voyageur/Tasse_de_voyageur.xlsx
+++ b/biology/Botanique/Tasse_de_voyageur/Tasse_de_voyageur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-La tasse de voyageur (aussi appelée tasse de canotier, tasse de forestier, tasse de rivière ou cup) est une tasse de bois sculptée dans une loupe d'arbre qui sert à s'abreuver directement dans un lac ou un cours d'eau. En anglais, on retrouve les appellations voyageur's cup, belt cup ou canoe cup[1]. En atikamekw, on les nomme pikwakot orakan.[2]
+La tasse de voyageur (aussi appelée tasse de canotier, tasse de forestier, tasse de rivière ou cup) est une tasse de bois sculptée dans une loupe d'arbre qui sert à s'abreuver directement dans un lac ou un cours d'eau. En anglais, on retrouve les appellations voyageur's cup, belt cup ou canoe cup. En atikamekw, on les nomme pikwakot orakan.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La fabrication de ces tasses de bois est une pratique issue des cultures autochtones d'Amérique du Nord qui a été adoptée par les voyageurs canadiens-français vers la fin du XVIIe siècle[3]. La majorité des gobelets plus anciens qu'on retrouve dans des collections muséales sont de provenance inconnue ou soupçonnée (naskapis[4], hurons-wendats[5], passamaquoddys[6]). Certains sont toutefois reconnus comme étant de provenance abénaquise[7].
-L'objet pratique qui servait à s'abreuver directement dans un cours d'eau et qui pouvait être porté à la ceinture a été adopté par les coureurs des bois canadiens-français qui parcouraient de longues distances afin de faire la traite de fourrures[3],[8].
-La pratique utilitaire possédait également un aspect créatif puisque chacun pouvait personnaliser sa tasse à sa façon. Au fil du temps, c'est ce côté artisanal qui a été conservé, les pratiquants de cette artisanat en faisant principalement un passe-temps[9].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fabrication de ces tasses de bois est une pratique issue des cultures autochtones d'Amérique du Nord qui a été adoptée par les voyageurs canadiens-français vers la fin du XVIIe siècle. La majorité des gobelets plus anciens qu'on retrouve dans des collections muséales sont de provenance inconnue ou soupçonnée (naskapis, hurons-wendats, passamaquoddys). Certains sont toutefois reconnus comme étant de provenance abénaquise.
+L'objet pratique qui servait à s'abreuver directement dans un cours d'eau et qui pouvait être porté à la ceinture a été adopté par les coureurs des bois canadiens-français qui parcouraient de longues distances afin de faire la traite de fourrures,.
+La pratique utilitaire possédait également un aspect créatif puisque chacun pouvait personnaliser sa tasse à sa façon. Au fil du temps, c'est ce côté artisanal qui a été conservé, les pratiquants de cette artisanat en faisant principalement un passe-temps.
 </t>
         </is>
       </c>
@@ -545,20 +559,18 @@
           <t>Fabrication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les tasses sont fabriquées à partir de loupes d'arbres principalement du bouleau ou de l'érable[3],[10]. Ces formations circulaires se trouvent sur les racines ou sur le tronc des arbres.
-Différents couteaux et gouges peuvent être utilisés pour sculpter la tasse. On procède d'abord au retrait de l'écorce sur l'extérieur de la loupe pour ensuite creuser le récipient[9].
-Plusieurs techniques peuvent être utilisées pour décorer les tasses comme la gravure en relief, la peinture, la pyrogravure, etc[1],[3]. Certains sculpteurs donnent des formes animales ou des formes d'objets à leur tasse. 
-L'objet fini est ensuite laissé à sécher, sablé et peut être verni ou huilé[10]. La tasse est souvent finalisée avec un cordon et un petit morceau de bois sculpté permettant de l'attacher à la ceinture[1],[3]. Traditionnellement, le cordon était fait de peau de cerf ou d'orignal[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les tasses sont fabriquées à partir de loupes d'arbres principalement du bouleau ou de l'érable,. Ces formations circulaires se trouvent sur les racines ou sur le tronc des arbres.
+Différents couteaux et gouges peuvent être utilisés pour sculpter la tasse. On procède d'abord au retrait de l'écorce sur l'extérieur de la loupe pour ensuite creuser le récipient.
+Plusieurs techniques peuvent être utilisées pour décorer les tasses comme la gravure en relief, la peinture, la pyrogravure, etc,. Certains sculpteurs donnent des formes animales ou des formes d'objets à leur tasse. 
+L'objet fini est ensuite laissé à sécher, sablé et peut être verni ou huilé. La tasse est souvent finalisée avec un cordon et un petit morceau de bois sculpté permettant de l'attacher à la ceinture,. Traditionnellement, le cordon était fait de peau de cerf ou d'orignal.
 			Écorçage de la loupe.
 			Évidage du récipient.
 			Sculpture de l'extérieur.
 			Exemples de tasses.
-Dans Lanaudière
-Le « gossage de cups » est une pratique encore vivante et transmise dans la municipalité de Mandeville[11],[9]. Cette tradition a été conservée principalement via la vente des cups à de riches américains qui possédaient le Mastigouche Fish and Game Club, un club de chasse et de pêche privé à Mandeville jusqu'au début des années 1970[9],[12],[13]. En 2017, un projet de mise en valeur des savoir-faire de la MRC de D'Autray a permis de former des nouveaux porteurs de savoir et de revitaliser la pratique[14],[10].
-Ailleurs dans le monde
-Une pratique similaire existe en Scandinavie[15]. La tasse qui en résulte se nomme la kuksa[16].
 </t>
         </is>
       </c>
@@ -584,20 +596,96 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Fabrication</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Dans Lanaudière</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le « gossage de cups » est une pratique encore vivante et transmise dans la municipalité de Mandeville,. Cette tradition a été conservée principalement via la vente des cups à de riches américains qui possédaient le Mastigouche Fish and Game Club, un club de chasse et de pêche privé à Mandeville jusqu'au début des années 1970. En 2017, un projet de mise en valeur des savoir-faire de la MRC de D'Autray a permis de former des nouveaux porteurs de savoir et de revitaliser la pratique,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tasse_de_voyageur</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tasse_de_voyageur</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Fabrication</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ailleurs dans le monde</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une pratique similaire existe en Scandinavie. La tasse qui en résulte se nomme la kuksa.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Tasse_de_voyageur</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tasse_de_voyageur</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Collections muséales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Plusieurs exemples de tasses de voyageur se retrouvent dans des collections muséales en Amérique du Nord.
-Musée des Abénakis[17]
-Musée canadien de l'histoire[18],[19]
-Musée de la civilisation[3]
-Musée McCord Stewart[7]
-Musée régional de Vaudreuil-Soulanges[20]
-Museum of the Fur Trade[21],[22]
-Seattle Art Museum[23]
-Metropolitan Museum of Art[6]</t>
+Musée des Abénakis
+Musée canadien de l'histoire,
+Musée de la civilisation
+Musée McCord Stewart
+Musée régional de Vaudreuil-Soulanges
+Museum of the Fur Trade,
+Seattle Art Museum
+Metropolitan Museum of Art</t>
         </is>
       </c>
     </row>
